--- a/template Excel/HR/JobPosition.xlsx
+++ b/template Excel/HR/JobPosition.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ToolControlDatabase\template Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ToolControlDatabase\template Excel\HR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DB1103F-F7DE-4FA2-A14C-787EE18F80A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EBD3927-41D7-4DA9-BD19-553B2DB9A875}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-105" windowWidth="29040" windowHeight="16440" xr2:uid="{F890C387-32FD-4FC9-80B5-3F349D4D636B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{F890C387-32FD-4FC9-80B5-3F349D4D636B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -461,7 +461,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
